--- a/TrainingData/MiscFiles/TimeSweep40Bar150C.xlsx
+++ b/TrainingData/MiscFiles/TimeSweep40Bar150C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\TrainingData\MiscFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5ECE9-2F47-4D30-B587-4F634F6C114B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826074F-82BD-4816-8F61-4C925C8B4A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +418,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E91"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,11 +468,11 @@
         <f>B2/10800</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="D2">
-        <v>341.87</v>
+      <c r="D2" s="1">
+        <v>155.01</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -484,7 +485,7 @@
       </c>
       <c r="I2">
         <f>2*PI()*H2^3*D2/3/G2</f>
-        <v>0.71601085365516182</v>
+        <v>0.32465218482196923</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -499,11 +500,11 @@
         <f t="shared" ref="C3:C66" si="1">B3/10800</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="D3">
-        <v>332.61</v>
+      <c r="D3" s="1">
+        <v>152.16</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>150</v>
@@ -516,7 +517,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="2">2*PI()*H3^3*D3/3/G3</f>
-        <v>0.69661675500700093</v>
+        <v>0.31868315878014863</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -531,11 +532,11 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D4">
-        <v>323.35000000000002</v>
+      <c r="D4" s="1">
+        <v>149.16999999999999</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>150</v>
@@ -548,7 +549,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>0.67722265635883983</v>
+        <v>0.31242091742399297</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -563,11 +564,11 @@
         <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="D5">
-        <v>314.92</v>
+      <c r="D5" s="1">
+        <v>146.44</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>150</v>
@@ -580,7 +581,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>0.65956690564566522</v>
+        <v>0.30670321879445955</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -595,11 +596,11 @@
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D6">
-        <v>307.08999999999997</v>
+      <c r="D6" s="1">
+        <v>144.11000000000001</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>150</v>
@@ -612,7 +613,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.64316779199392637</v>
+        <v>0.30182327820588351</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -627,11 +628,11 @@
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D7">
-        <v>300.49</v>
+      <c r="D7" s="1">
+        <v>141.51</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>150</v>
@@ -644,7 +645,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.62934478431813135</v>
+        <v>0.29637785093966112</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -659,11 +660,11 @@
         <f t="shared" si="1"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="D8">
-        <v>294.43</v>
+      <c r="D8" s="1">
+        <v>138.81</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>150</v>
@@ -676,7 +677,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.61665274999762865</v>
+        <v>0.29072298416319953</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -691,11 +692,11 @@
         <f t="shared" si="1"/>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="D9">
-        <v>287.89999999999998</v>
+      <c r="D9" s="1">
+        <v>137.05000000000001</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>150</v>
@@ -708,7 +709,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>0.60297634997900107</v>
+        <v>0.28703684878298746</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -723,11 +724,11 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="D10">
-        <v>282.56</v>
+      <c r="D10" s="1">
+        <v>135.26</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>150</v>
@@ -740,7 +741,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0.5917922801322214</v>
+        <v>0.28328788154970364</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -755,11 +756,11 @@
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D11">
-        <v>278.04000000000002</v>
+      <c r="D11" s="1">
+        <v>133.08000000000001</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>150</v>
@@ -772,7 +773,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>0.58232561426940421</v>
+        <v>0.27872210022648652</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -787,11 +788,11 @@
         <f t="shared" si="1"/>
         <v>0.12222222222222222</v>
       </c>
-      <c r="D12">
-        <v>273.39</v>
+      <c r="D12" s="1">
+        <v>131.63999999999999</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>150</v>
@@ -804,7 +805,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.5725866770432757</v>
+        <v>0.27570617127904029</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -819,11 +820,11 @@
         <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="D13">
-        <v>268.8</v>
+      <c r="D13" s="1">
+        <v>130.09</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>150</v>
@@ -836,7 +837,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>0.56297340352329106</v>
+        <v>0.27245985887033086</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -851,11 +852,11 @@
         <f t="shared" si="1"/>
         <v>0.14444444444444443</v>
       </c>
-      <c r="D14">
-        <v>264.83</v>
+      <c r="D14" s="1">
+        <v>128.27000000000001</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>150</v>
@@ -868,7 +869,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0.55465865496679012</v>
+        <v>0.26864805978397527</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,11 +884,11 @@
         <f t="shared" si="1"/>
         <v>0.15555555555555556</v>
       </c>
-      <c r="D15">
-        <v>260.44</v>
+      <c r="D15" s="1">
+        <v>126.71</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>150</v>
@@ -900,7 +901,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>0.54546426046728391</v>
+        <v>0.26538080342424186</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -915,11 +916,11 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D16">
-        <v>256.44</v>
+      <c r="D16" s="1">
+        <v>125.02</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>150</v>
@@ -932,7 +933,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>0.53708668005771121</v>
+        <v>0.26184127570119736</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -947,11 +948,11 @@
         <f t="shared" si="1"/>
         <v>0.17777777777777778</v>
       </c>
-      <c r="D17">
-        <v>253.07</v>
+      <c r="D17" s="1">
+        <v>122.94</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>150</v>
@@ -964,7 +965,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>0.53002856856264602</v>
+        <v>0.25748493388821952</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -979,11 +980,11 @@
         <f t="shared" si="1"/>
         <v>0.18888888888888888</v>
       </c>
-      <c r="D18">
-        <v>249.98</v>
+      <c r="D18" s="1">
+        <v>121.18</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>150</v>
@@ -996,7 +997,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>0.52355688769625108</v>
+        <v>0.25379879850800752</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,11 +1012,11 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="D19">
-        <v>246.86</v>
+      <c r="D19" s="1">
+        <v>119.7</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>150</v>
@@ -1028,7 +1029,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>0.51702237497678427</v>
+        <v>0.25069909375646554</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1043,11 +1044,11 @@
         <f t="shared" si="1"/>
         <v>0.21111111111111111</v>
       </c>
-      <c r="D20">
-        <v>244.21</v>
+      <c r="D20" s="1">
+        <v>118.1</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>150</v>
@@ -1060,7 +1061,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>0.51147222795544234</v>
+        <v>0.24734806159263642</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1075,11 +1076,11 @@
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D21">
-        <v>241.25</v>
+      <c r="D21" s="1">
+        <v>116.79</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>150</v>
@@ -1092,7 +1093,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>0.5052728184523585</v>
+        <v>0.24460440400850134</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1107,11 +1108,11 @@
         <f t="shared" si="1"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="D22">
-        <v>238.56</v>
+      <c r="D22" s="1">
+        <v>115.63</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <v>150</v>
@@ -1124,7 +1125,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>0.49963889562692076</v>
+        <v>0.24217490568972522</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,11 +1140,11 @@
         <f t="shared" si="1"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="D23">
-        <v>236.24</v>
+      <c r="D23" s="1">
+        <v>114.27</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>150</v>
@@ -1156,7 +1157,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0.49477989898936858</v>
+        <v>0.23932652835047047</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,11 +1172,11 @@
         <f t="shared" si="1"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="D24">
-        <v>233.61</v>
+      <c r="D24" s="1">
+        <v>113.09</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>150</v>
@@ -1188,7 +1189,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.48927163987007444</v>
+        <v>0.23685514212964651</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1203,11 +1204,11 @@
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="D25">
-        <v>231.07</v>
+      <c r="D25" s="1">
+        <v>112.26</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F25">
         <v>150</v>
@@ -1220,7 +1221,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>0.48395187630999575</v>
+        <v>0.23511679419466017</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1235,11 +1236,11 @@
         <f t="shared" si="1"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="D26">
-        <v>229.42</v>
+      <c r="D26" s="1">
+        <v>111.29</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F26">
         <v>150</v>
@@ -1252,7 +1253,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>0.48049612439104694</v>
+        <v>0.23308523094533876</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1267,11 +1268,11 @@
         <f t="shared" si="1"/>
         <v>0.28888888888888886</v>
       </c>
-      <c r="D27">
-        <v>227.51</v>
+      <c r="D27" s="1">
+        <v>110.78</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F27">
         <v>150</v>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>0.476495829745476</v>
+        <v>0.23201708944311822</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1299,11 +1300,11 @@
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="D28">
-        <v>225.31</v>
+      <c r="D28" s="1">
+        <v>110.53</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F28">
         <v>150</v>
@@ -1316,7 +1317,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>0.47188816052021093</v>
+        <v>0.23149349066751992</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1331,11 +1332,11 @@
         <f t="shared" si="1"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="D29">
-        <v>223.55</v>
+      <c r="D29" s="1">
+        <v>110.08</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>150</v>
@@ -1348,7 +1349,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>0.46820202513999898</v>
+        <v>0.23055101287144297</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1363,11 +1364,11 @@
         <f t="shared" si="1"/>
         <v>0.32222222222222224</v>
       </c>
-      <c r="D30">
-        <v>221.4</v>
+      <c r="D30" s="1">
+        <v>109.55</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F30">
         <v>150</v>
@@ -1380,7 +1381,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>0.46369907566985352</v>
+        <v>0.22944098346717459</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1395,11 +1396,11 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D31">
-        <v>219.51</v>
+      <c r="D31" s="1">
+        <v>109.34</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <v>150</v>
@@ -1412,7 +1413,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>0.45974066892633042</v>
+        <v>0.22900116049567204</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,11 +1428,11 @@
         <f t="shared" si="1"/>
         <v>0.34444444444444444</v>
       </c>
-      <c r="D32">
-        <v>218.12</v>
+      <c r="D32" s="1">
+        <v>108.57</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F32">
         <v>150</v>
@@ -1444,7 +1445,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>0.45682945973400385</v>
+        <v>0.22738847626682926</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1459,11 +1460,11 @@
         <f t="shared" si="1"/>
         <v>0.35555555555555557</v>
       </c>
-      <c r="D33">
-        <v>216.97</v>
+      <c r="D33" s="1">
+        <v>108.18</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F33">
         <v>150</v>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>0.45442090536625168</v>
+        <v>0.22657166217689595</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1491,11 +1492,11 @@
         <f t="shared" si="1"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="D34">
-        <v>215.29</v>
+      <c r="D34" s="1">
+        <v>108.03</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -1508,7 +1509,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>0.4509023215942311</v>
+        <v>0.22625750291153696</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1523,11 +1524,11 @@
         <f t="shared" si="1"/>
         <v>0.37777777777777777</v>
       </c>
-      <c r="D35">
-        <v>214.26</v>
+      <c r="D35" s="1">
+        <v>107.5</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -1540,7 +1541,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>0.44874509463876611</v>
+        <v>0.22514747350726855</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,11 +1556,11 @@
         <f t="shared" si="1"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="D36">
-        <v>212.89</v>
+      <c r="D36" s="1">
+        <v>106.86</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F36">
         <v>150</v>
@@ -1572,7 +1573,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>0.44587577334848738</v>
+        <v>0.22380706064173689</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,11 +1588,11 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="D37">
-        <v>211.2</v>
+      <c r="D37" s="1">
+        <v>106.33</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F37">
         <v>150</v>
@@ -1604,7 +1605,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>0.44233624562544294</v>
+        <v>0.22269703123746853</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1619,11 +1620,11 @@
         <f t="shared" si="1"/>
         <v>0.41111111111111109</v>
       </c>
-      <c r="D38">
-        <v>209.57</v>
+      <c r="D38" s="1">
+        <v>105.91</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F38">
         <v>150</v>
@@ -1636,7 +1637,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>0.43892238160854202</v>
+        <v>0.22181738529446335</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1651,11 +1652,11 @@
         <f t="shared" si="1"/>
         <v>0.42222222222222222</v>
       </c>
-      <c r="D39">
-        <v>208.43</v>
+      <c r="D39" s="1">
+        <v>105.47</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F39">
         <v>150</v>
@@ -1668,7 +1669,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>0.43653477119181383</v>
+        <v>0.22089585144941035</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1683,11 +1684,11 @@
         <f t="shared" si="1"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="D40">
-        <v>207.11</v>
+      <c r="D40" s="1">
+        <v>105.13</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F40">
         <v>150</v>
@@ -1700,7 +1701,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>0.43377016965665482</v>
+        <v>0.22018375711459667</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1715,11 +1716,11 @@
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D41">
-        <v>206.01</v>
+      <c r="D41" s="1">
+        <v>104.46</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F41">
         <v>150</v>
@@ -1732,7 +1733,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>0.43146633504402221</v>
+        <v>0.21878051239599325</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1747,11 +1748,11 @@
         <f t="shared" si="1"/>
         <v>0.45555555555555555</v>
       </c>
-      <c r="D42">
-        <v>204.74</v>
+      <c r="D42" s="1">
+        <v>103.62</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F42">
         <v>150</v>
@@ -1764,7 +1765,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>0.42880645326398292</v>
+        <v>0.21702122050998296</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1779,11 +1780,11 @@
         <f t="shared" si="1"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="D43">
-        <v>203.65</v>
+      <c r="D43" s="1">
+        <v>102.74</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F43">
         <v>150</v>
@@ -1796,7 +1797,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>0.42652356260237428</v>
+        <v>0.2151781528198769</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1811,11 +1812,11 @@
         <f t="shared" si="1"/>
         <v>0.4777777777777778</v>
       </c>
-      <c r="D44">
-        <v>202.51</v>
+      <c r="D44" s="1">
+        <v>101.73</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F44">
         <v>150</v>
@@ -1828,7 +1829,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>0.42413595218564604</v>
+        <v>0.2130628137664598</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1843,11 +1844,11 @@
         <f t="shared" si="1"/>
         <v>0.48888888888888887</v>
       </c>
-      <c r="D45">
-        <v>201.53</v>
+      <c r="D45" s="1">
+        <v>100.48</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F45">
         <v>150</v>
@@ -1860,7 +1861,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>0.4220834449853007</v>
+        <v>0.21044481988846833</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1875,11 +1876,11 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="D46">
-        <v>199.9</v>
+      <c r="D46" s="1">
+        <v>99.632000000000005</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F46">
         <v>150</v>
@@ -1892,7 +1893,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>0.4186695809683999</v>
+        <v>0.20866877284163887</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1907,11 +1908,11 @@
         <f t="shared" si="1"/>
         <v>0.51111111111111107</v>
       </c>
-      <c r="D47">
-        <v>198.92</v>
+      <c r="D47" s="1">
+        <v>98.965000000000003</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F47">
         <v>150</v>
@@ -1924,7 +1925,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>0.41661707376805451</v>
+        <v>0.20727181130834263</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1939,11 +1940,11 @@
         <f t="shared" si="1"/>
         <v>0.52222222222222225</v>
       </c>
-      <c r="D48">
-        <v>198.34</v>
+      <c r="D48" s="1">
+        <v>97.78</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F48">
         <v>150</v>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>0.41540232460866644</v>
+        <v>0.20478995311200671</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1971,11 +1972,11 @@
         <f t="shared" si="1"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="D49">
-        <v>197.43</v>
+      <c r="D49" s="1">
+        <v>97.129000000000005</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F49">
         <v>150</v>
@@ -1988,7 +1989,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>0.41349642506548867</v>
+        <v>0.20342650190034872</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2003,11 +2004,11 @@
         <f t="shared" si="1"/>
         <v>0.5444444444444444</v>
       </c>
-      <c r="D50">
-        <v>196.34</v>
+      <c r="D50" s="1">
+        <v>96.507000000000005</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F50">
         <v>150</v>
@@ -2020,7 +2021,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>0.41121353440388003</v>
+        <v>0.20212378814666015</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2035,11 +2036,11 @@
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D51">
-        <v>195.31</v>
+      <c r="D51" s="1">
+        <v>95.742000000000004</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F51">
         <v>150</v>
@@ -2052,7 +2053,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>0.40905630744841504</v>
+        <v>0.20052157589332936</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2067,11 +2068,11 @@
         <f t="shared" si="1"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="D52">
-        <v>193.65</v>
+      <c r="D52" s="1">
+        <v>95.224000000000004</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F52">
         <v>150</v>
@@ -2084,7 +2085,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>0.4055796115784423</v>
+        <v>0.19943667923028971</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2099,11 +2100,11 @@
         <f t="shared" si="1"/>
         <v>0.57777777777777772</v>
       </c>
-      <c r="D53">
-        <v>192.18</v>
+      <c r="D53" s="1">
+        <v>95.007999999999996</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F53">
         <v>150</v>
@@ -2116,7 +2117,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>0.40250085077792436</v>
+        <v>0.19898428988817274</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2131,11 +2132,11 @@
         <f t="shared" si="1"/>
         <v>0.58888888888888891</v>
       </c>
-      <c r="D54">
-        <v>190.71</v>
+      <c r="D54" s="1">
+        <v>94.451999999999998</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F54">
         <v>150</v>
@@ -2148,7 +2149,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>0.39942208997740641</v>
+        <v>0.19781980621124212</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2163,11 +2164,11 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="D55">
-        <v>188.92</v>
+      <c r="D55" s="1">
+        <v>94.253</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F55">
         <v>150</v>
@@ -2180,7 +2181,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>0.39567312274412259</v>
+        <v>0.19740302158586587</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2195,11 +2196,11 @@
         <f t="shared" si="1"/>
         <v>0.61111111111111116</v>
       </c>
-      <c r="D56">
-        <v>187.19</v>
+      <c r="D56" s="1">
+        <v>94.233999999999995</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F56">
         <v>150</v>
@@ -2212,7 +2213,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>0.39204981921698229</v>
+        <v>0.1973632280789204</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2227,11 +2228,11 @@
         <f t="shared" si="1"/>
         <v>0.62222222222222223</v>
       </c>
-      <c r="D57">
-        <v>186.01</v>
+      <c r="D57" s="1">
+        <v>93.733999999999995</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F57">
         <v>150</v>
@@ -2244,7 +2245,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>0.3895784329961583</v>
+        <v>0.19631603052772381</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2259,11 +2260,11 @@
         <f t="shared" si="1"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="D58">
-        <v>184.95</v>
+      <c r="D58" s="1">
+        <v>93.67</v>
       </c>
       <c r="E58">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F58">
         <v>150</v>
@@ -2276,7 +2277,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>0.38735837418762153</v>
+        <v>0.19618198924117067</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2291,11 +2292,11 @@
         <f t="shared" si="1"/>
         <v>0.64444444444444449</v>
       </c>
-      <c r="D59">
-        <v>184.08</v>
+      <c r="D59" s="1">
+        <v>93.603999999999999</v>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F59">
         <v>150</v>
@@ -2308,7 +2309,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>0.38553625044853945</v>
+        <v>0.19604375916441269</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2323,11 +2324,11 @@
         <f t="shared" si="1"/>
         <v>0.65555555555555556</v>
       </c>
-      <c r="D60">
-        <v>183.57</v>
+      <c r="D60" s="1">
+        <v>93.296999999999997</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F60">
         <v>150</v>
@@ -2340,7 +2341,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>0.38446810894631894</v>
+        <v>0.19540077986797799</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2355,11 +2356,11 @@
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D61">
-        <v>182.99</v>
+      <c r="D61" s="1">
+        <v>93.257999999999996</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F61">
         <v>150</v>
@@ -2372,7 +2373,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>0.38325335978693092</v>
+        <v>0.19531909845898465</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2387,11 +2388,11 @@
         <f t="shared" si="1"/>
         <v>0.67777777777777781</v>
       </c>
-      <c r="D62">
-        <v>182.7</v>
+      <c r="D62" s="1">
+        <v>93.266999999999996</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F62">
         <v>150</v>
@@ -2404,7 +2405,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>0.38264598520723686</v>
+        <v>0.1953379480149062</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2419,11 +2420,11 @@
         <f t="shared" si="1"/>
         <v>0.68888888888888888</v>
       </c>
-      <c r="D63">
-        <v>182.5</v>
+      <c r="D63" s="1">
+        <v>93.103999999999999</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F63">
         <v>150</v>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>0.38222710618675826</v>
+        <v>0.1949965616132161</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2451,11 +2452,11 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="D64">
-        <v>182.1</v>
+      <c r="D64" s="1">
+        <v>92.760999999999996</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F64">
         <v>150</v>
@@ -2468,7 +2469,7 @@
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>0.38138934814580094</v>
+        <v>0.19427818409309525</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2483,11 +2484,11 @@
         <f t="shared" si="1"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="D65">
-        <v>181.22</v>
+      <c r="D65" s="1">
+        <v>92.619</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F65">
         <v>150</v>
@@ -2500,7 +2501,7 @@
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>0.379546280455695</v>
+        <v>0.1939807799885554</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2515,11 +2516,11 @@
         <f t="shared" si="1"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="D66">
-        <v>180.79</v>
+      <c r="D66" s="1">
+        <v>92.091999999999999</v>
       </c>
       <c r="E66">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F66">
         <v>150</v>
@@ -2532,7 +2533,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>0.37864569056166586</v>
+        <v>0.19287703376959417</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2547,11 +2548,11 @@
         <f t="shared" ref="C67:C91" si="4">B67/10800</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="D67">
-        <v>180.19</v>
+      <c r="D67" s="1">
+        <v>91.6</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F67">
         <v>150</v>
@@ -2564,7 +2565,7 @@
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I91" si="5">2*PI()*H67^3*D67/3/G67</f>
-        <v>0.37738905350022994</v>
+        <v>0.19184659137921672</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2579,11 +2580,11 @@
         <f t="shared" si="4"/>
         <v>0.74444444444444446</v>
       </c>
-      <c r="D68">
-        <v>179.39</v>
+      <c r="D68" s="1">
+        <v>91.507000000000005</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F68">
         <v>150</v>
@@ -2596,7 +2597,7 @@
       </c>
       <c r="I68">
         <f t="shared" si="5"/>
-        <v>0.37571353741831537</v>
+        <v>0.19165181263469416</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2611,11 +2612,11 @@
         <f t="shared" si="4"/>
         <v>0.75555555555555554</v>
       </c>
-      <c r="D69">
-        <v>179.08</v>
+      <c r="D69" s="1">
+        <v>91.159000000000006</v>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F69">
         <v>150</v>
@@ -2628,7 +2629,7 @@
       </c>
       <c r="I69">
         <f t="shared" si="5"/>
-        <v>0.37506427493657352</v>
+        <v>0.19092296313906137</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2643,11 +2644,11 @@
         <f t="shared" si="4"/>
         <v>0.76666666666666672</v>
       </c>
-      <c r="D70">
-        <v>178.53</v>
+      <c r="D70" s="1">
+        <v>90.706000000000003</v>
       </c>
       <c r="E70">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F70">
         <v>150</v>
@@ -2660,7 +2661,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="5"/>
-        <v>0.37391235763025726</v>
+        <v>0.18997420215767721</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2675,11 +2676,11 @@
         <f t="shared" si="4"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="D71">
-        <v>177.82</v>
+      <c r="D71" s="1">
+        <v>90.509</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F71">
         <v>150</v>
@@ -2692,7 +2693,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="5"/>
-        <v>0.3724253371075581</v>
+        <v>0.18956160632250574</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2707,11 +2708,11 @@
         <f t="shared" si="4"/>
         <v>0.78888888888888886</v>
       </c>
-      <c r="D72">
-        <v>177.16</v>
+      <c r="D72" s="1">
+        <v>90.135999999999996</v>
       </c>
       <c r="E72">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F72">
         <v>150</v>
@@ -2724,7 +2725,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="5"/>
-        <v>0.37104303633997854</v>
+        <v>0.18878039694931309</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2739,11 +2740,11 @@
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="D73">
-        <v>176.46</v>
+      <c r="D73" s="1">
+        <v>89.754999999999995</v>
       </c>
       <c r="E73">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F73">
         <v>150</v>
@@ -2756,7 +2757,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>0.36957695976830335</v>
+        <v>0.1879824324153013</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2771,11 +2772,11 @@
         <f t="shared" si="4"/>
         <v>0.81111111111111112</v>
       </c>
-      <c r="D74">
-        <v>175.65</v>
+      <c r="D74" s="1">
+        <v>89.367999999999995</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F74">
         <v>150</v>
@@ -2788,7 +2789,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="5"/>
-        <v>0.36788049973536491</v>
+        <v>0.18717190151067511</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2803,11 +2804,11 @@
         <f t="shared" si="4"/>
         <v>0.82222222222222219</v>
       </c>
-      <c r="D75">
-        <v>175.3</v>
+      <c r="D75" s="1">
+        <v>88.784000000000006</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F75">
         <v>150</v>
@@ -2820,7 +2821,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="5"/>
-        <v>0.36714746144952726</v>
+        <v>0.18594877477087748</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2835,11 +2836,11 @@
         <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D76">
-        <v>174.84</v>
+      <c r="D76" s="1">
+        <v>87.905000000000001</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F76">
         <v>150</v>
@@ -2852,7 +2853,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="5"/>
-        <v>0.36618403970242636</v>
+        <v>0.18410780147587388</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2867,11 +2868,11 @@
         <f t="shared" si="4"/>
         <v>0.84444444444444444</v>
       </c>
-      <c r="D77">
-        <v>174.03</v>
+      <c r="D77" s="1">
+        <v>87.367999999999995</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F77">
         <v>150</v>
@@ -2884,7 +2885,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="5"/>
-        <v>0.36448757966948792</v>
+        <v>0.18298311130588871</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2899,11 +2900,11 @@
         <f t="shared" si="4"/>
         <v>0.85555555555555551</v>
       </c>
-      <c r="D78">
-        <v>173.35</v>
+      <c r="D78" s="1">
+        <v>86.716999999999999</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F78">
         <v>150</v>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>0.36306339099986051</v>
+        <v>0.18161966009423075</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2931,11 +2932,11 @@
         <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="D79">
-        <v>172.83</v>
+      <c r="D79" s="1">
+        <v>85.997</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F79">
         <v>150</v>
@@ -2948,7 +2949,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>0.36197430554661608</v>
+        <v>0.18011169562050763</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2963,11 +2964,11 @@
         <f t="shared" si="4"/>
         <v>0.87777777777777777</v>
       </c>
-      <c r="D80">
-        <v>171.98</v>
+      <c r="D80" s="1">
+        <v>85.531999999999996</v>
       </c>
       <c r="E80">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F80">
         <v>150</v>
@@ -2980,7 +2981,7 @@
       </c>
       <c r="I80">
         <f t="shared" si="5"/>
-        <v>0.36019406970958179</v>
+        <v>0.1791378018978948</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2995,11 +2996,11 @@
         <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="D81">
-        <v>171.33</v>
+      <c r="D81" s="1">
+        <v>85.126999999999995</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F81">
         <v>150</v>
@@ -3012,7 +3013,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="5"/>
-        <v>0.35883271289302626</v>
+        <v>0.17828957188142555</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3027,11 +3028,11 @@
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="D82">
-        <v>171.26</v>
+      <c r="D82" s="1">
+        <v>84.539000000000001</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F82">
         <v>150</v>
@@ -3044,7 +3045,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>0.3586861052358587</v>
+        <v>0.17705806756121836</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3059,11 +3060,11 @@
         <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="D83">
-        <v>170.6</v>
+      <c r="D83" s="1">
+        <v>84.153999999999996</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F83">
         <v>150</v>
@@ -3076,7 +3077,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>0.35730380446827914</v>
+        <v>0.17625172544679699</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3091,11 +3092,11 @@
         <f t="shared" si="4"/>
         <v>0.92222222222222228</v>
       </c>
-      <c r="D84">
-        <v>170.25</v>
+      <c r="D84" s="1">
+        <v>84.097999999999999</v>
       </c>
       <c r="E84">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F84">
         <v>150</v>
@@ -3108,7 +3109,7 @@
       </c>
       <c r="I84">
         <f t="shared" si="5"/>
-        <v>0.35657076618244155</v>
+        <v>0.17613443932106299</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3123,11 +3124,11 @@
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="D85">
-        <v>169.89</v>
+      <c r="D85" s="1">
+        <v>83.638000000000005</v>
       </c>
       <c r="E85">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F85">
         <v>150</v>
@@ -3140,7 +3141,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="5"/>
-        <v>0.35581678394558003</v>
+        <v>0.17517101757396211</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3155,11 +3156,11 @@
         <f t="shared" si="4"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="D86">
-        <v>169.39</v>
+      <c r="D86" s="1">
+        <v>83.51</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F86">
         <v>150</v>
@@ -3172,7 +3173,7 @@
       </c>
       <c r="I86">
         <f t="shared" si="5"/>
-        <v>0.35476958639438338</v>
+        <v>0.1749029350008558</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3187,11 +3188,11 @@
         <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="D87">
-        <v>168.86</v>
+      <c r="D87" s="1">
+        <v>83.623999999999995</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F87">
         <v>150</v>
@@ -3204,7 +3205,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="5"/>
-        <v>0.35365955699011509</v>
+        <v>0.17514169604252861</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3219,11 +3220,11 @@
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="D88">
-        <v>168.48</v>
+      <c r="D88" s="1">
+        <v>83.334000000000003</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F88">
         <v>150</v>
@@ -3236,7 +3237,7 @@
       </c>
       <c r="I88">
         <f t="shared" si="5"/>
-        <v>0.35286368685120562</v>
+        <v>0.1745343214628346</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3251,11 +3252,11 @@
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="D89">
-        <v>167.96</v>
+      <c r="D89" s="1">
+        <v>83.393000000000001</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F89">
         <v>150</v>
@@ -3268,7 +3269,7 @@
       </c>
       <c r="I89">
         <f t="shared" si="5"/>
-        <v>0.35177460139796118</v>
+        <v>0.17465789077387578</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3283,11 +3284,11 @@
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="D90">
-        <v>167.69</v>
+      <c r="D90" s="1">
+        <v>83.667000000000002</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F90">
         <v>150</v>
@@ -3300,7 +3301,7 @@
       </c>
       <c r="I90">
         <f t="shared" si="5"/>
-        <v>0.35120911472031502</v>
+        <v>0.1752317550319315</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3315,11 +3316,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D91">
-        <v>167.51</v>
+      <c r="D91" s="1">
+        <v>83.646000000000001</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F91">
         <v>150</v>
@@ -3332,7 +3333,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="5"/>
-        <v>0.3508321236018842</v>
+        <v>0.17518777273478126</v>
       </c>
     </row>
   </sheetData>
